--- a/Faa_neew/p2-faa-0ms.xlsx
+++ b/Faa_neew/p2-faa-0ms.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens interaction logs\annotated\Faa-0ms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\Faa_neew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A40D537-4DCA-4079-BAAA-479E0EDD38D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AA0E2-2962-4DAB-AFE6-D15B6D96E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet(2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="70">
   <si>
     <t>proposition</t>
   </si>
@@ -233,6 +234,15 @@
   </si>
   <si>
     <t>**Note** Not really sure that Y2K refers to so for now I will assume it is related to users search using time histograms</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>explanation</t>
   </si>
 </sst>
 </file>
@@ -605,7 +615,7 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -647,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -754,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1405,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1830,6 +1840,1387 @@
         <v>3.9548611111111111E-2</v>
       </c>
       <c r="I46">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D421C15D-8EB5-4A79-B59E-D8E4C416F5B1}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3"/>
+    <col min="11" max="11" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.0763888888888887E-2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.0995370370370369E-2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.119212962962963E-2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.162037037037037E-2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.2141203703703705E-2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.2233796296296297E-2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.2395833333333334E-2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.2708333333333334E-2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.3078703703703702E-2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.3645833333333335E-2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.4479166666666666E-2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.4594907407407409E-2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.554398148148148E-2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.582175925925926E-2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.7141203703703702E-2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.8020833333333332E-2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.8321759259259258E-2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.837962962962963E-2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.8761574074074075E-2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.8784722222222222E-2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.9340277777777778E-2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2.9560185185185186E-2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2.9826388888888888E-2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.170138888888889E-2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3.170138888888889E-2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3.1967592592592596E-2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3.2395833333333332E-2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3.2916666666666664E-2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.3935185185185186E-2</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3.4560185185185187E-2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.5034722222222224E-2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3.5555555555555556E-2</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3.6041666666666666E-2</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3.7164351851851851E-2</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3.72337962962963E-2</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3.7280092592592594E-2</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>3.7523148148148146E-2</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>3.7662037037037036E-2</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3.8206018518518521E-2</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3.8599537037037036E-2</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3.8877314814814816E-2</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3.9548611111111111E-2</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
     </row>

--- a/Faa_neew/p2-faa-0ms.xlsx
+++ b/Faa_neew/p2-faa-0ms.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\Faa_neew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AA0E2-2962-4DAB-AFE6-D15B6D96E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10DDED3-4195-4481-A214-9787CEBB3FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet(2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="84">
   <si>
     <t>proposition</t>
   </si>
@@ -243,6 +244,48 @@
   </si>
   <si>
     <t>explanation</t>
+  </si>
+  <si>
+    <t>scatterplot</t>
+  </si>
+  <si>
+    <t>scatterplot carrier</t>
+  </si>
+  <si>
+    <t>carrier year</t>
+  </si>
+  <si>
+    <t>carrier month</t>
+  </si>
+  <si>
+    <t>scatterplot month</t>
+  </si>
+  <si>
+    <t>scatterplot year carrier month</t>
+  </si>
+  <si>
+    <t>scatterplot year</t>
+  </si>
+  <si>
+    <t>scatterplot carrier year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scatterplot carrier </t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scatterplot </t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year month </t>
+  </si>
+  <si>
+    <t>year month</t>
   </si>
 </sst>
 </file>
@@ -1856,9 +1899,9 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1938,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>63</v>
@@ -1967,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>63</v>
@@ -2057,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
@@ -2086,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>63</v>
@@ -2144,7 +2187,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>63</v>
@@ -2202,7 +2245,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -2260,7 +2303,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>65</v>
@@ -2289,7 +2332,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>63</v>
@@ -2318,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>63</v>
@@ -2434,7 +2477,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
@@ -2521,7 +2564,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -2579,7 +2622,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -2608,7 +2651,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -2753,7 +2796,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>63</v>
@@ -2785,7 +2828,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>63</v>
@@ -2843,7 +2886,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>63</v>
@@ -2933,7 +2976,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>65</v>
@@ -2965,7 +3008,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>63</v>
@@ -2994,7 +3037,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>63</v>
@@ -3055,7 +3098,7 @@
         <v>0.25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>8</v>
@@ -3110,7 +3153,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>63</v>
@@ -3142,7 +3185,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>63</v>
@@ -3228,4 +3271,862 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CC581C-E82D-4A99-ADEB-D42942F39E13}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625"/>
+    <col min="8" max="9" width="17.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="I44" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>